--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3625644.441791762</v>
+        <v>3624386.356117544</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.56035184772918e-10</v>
+        <v>1.155342488345923e-10</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.24484652722592</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>55.90922630248176</v>
+        <v>12.00212044293436</v>
       </c>
       <c r="G2" t="n">
-        <v>55.90922630248176</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="U2" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="H3" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="I3" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>48.49825520096806</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>48.49825520096891</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>21.36851498040265</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>21.36851498040449</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G5" t="n">
-        <v>21.85442600983729</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>90.36004757168706</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>100.3458530437604</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>220.8837963815379</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>196.9826481283071</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>64.94703421617618</v>
       </c>
       <c r="U9" t="n">
-        <v>17.80938273601442</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C11" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D11" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F11" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0508974529287</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H11" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T11" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V11" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W11" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X11" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="12">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676736</v>
       </c>
       <c r="S12" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T12" t="n">
         <v>195.2890311093384</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6244427462461</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460485</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G13" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633783</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497089</v>
       </c>
       <c r="S13" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T13" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1593,10 +1593,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C14" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D14" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F14" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0508974529296</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H14" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I14" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T14" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U14" t="n">
-        <v>161.1737578526501</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V14" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X14" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.2469083840881</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997177</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666231</v>
       </c>
       <c r="D16" t="n">
-        <v>58.6244427462461</v>
+        <v>58.62444274624683</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460364</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096572</v>
       </c>
       <c r="G16" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866693</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633782</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497088</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U16" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V16" t="n">
         <v>162.1466130518625</v>
@@ -1830,10 +1830,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X16" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917438</v>
       </c>
       <c r="T17" t="n">
         <v>123.208124435388</v>
       </c>
       <c r="U17" t="n">
-        <v>161.173757852651</v>
+        <v>161.1737578526523</v>
       </c>
       <c r="V17" t="n">
         <v>237.7612281981694</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C20" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D20" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E20" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F20" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G20" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T20" t="n">
-        <v>123.2081244353877</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U20" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W20" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X20" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="21">
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S21" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T21" t="n">
         <v>195.2890311093384</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D22" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E22" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096573</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G22" t="n">
-        <v>76.98582764574806</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866702</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.7037734149709</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T22" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U22" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W22" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X22" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801285</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C23" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D23" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E23" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F23" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G23" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019343</v>
+        <v>33.32498986019353</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>67.51083621917468</v>
       </c>
       <c r="T23" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353872</v>
       </c>
       <c r="U23" t="n">
-        <v>161.1737578526528</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V23" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I24" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S24" t="n">
         <v>149.2146408812902</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D25" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E25" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G25" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574816</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866695</v>
+        <v>63.21968069866703</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633783</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497089</v>
+        <v>41.70377341497098</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T25" t="n">
         <v>133.6214948185866</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695756</v>
+        <v>196.272683369575</v>
       </c>
       <c r="V25" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W25" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X25" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y25" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C26" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D26" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F26" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G26" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019341</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917438</v>
       </c>
       <c r="T26" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U26" t="n">
-        <v>161.1737578526514</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
         <v>237.7612281981694</v>
@@ -2654,7 +2654,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I27" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S27" t="n">
         <v>149.2146408812902</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997178</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666371</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460366</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866695</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633783</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497089</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385658</v>
@@ -2769,7 +2769,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695762</v>
       </c>
       <c r="V28" t="n">
         <v>162.1466130518625</v>
@@ -2778,7 +2778,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
         <v>128.5936230801293</v>
@@ -2794,7 +2794,7 @@
         <v>292.7428113915151</v>
       </c>
       <c r="C29" t="n">
-        <v>275.2818614990423</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D29" t="n">
         <v>264.6920113487175</v>
@@ -2806,13 +2806,13 @@
         <v>316.885015469746</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0508974529291</v>
+        <v>323.0508974529293</v>
       </c>
       <c r="H29" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2891,7 +2891,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I30" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S30" t="n">
         <v>149.2146408812902</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997183</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E31" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G31" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633821</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7037734149708</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V31" t="n">
         <v>162.1466130518625</v>
@@ -3043,13 +3043,13 @@
         <v>316.885015469746</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0508974529295</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
-        <v>226.3302535795013</v>
+        <v>226.3302535795019</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019353</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917287</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.173757852651</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W32" t="n">
         <v>259.2499384454476</v>
@@ -3097,7 +3097,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I33" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S33" t="n">
         <v>149.2146408812902</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997187</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666241</v>
       </c>
       <c r="D34" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624693</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460374</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096582</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574816</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866599</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497098</v>
       </c>
       <c r="S34" t="n">
         <v>116.3521968385659</v>
@@ -3246,16 +3246,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X34" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U35" t="n">
-        <v>161.1737578526514</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W35" t="n">
         <v>259.2499384454476</v>
@@ -3334,7 +3334,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624691</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460373</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F37" t="n">
-        <v>55.4300177509658</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574815</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633743</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497096</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385659</v>
@@ -3483,16 +3483,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V37" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X37" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C38" t="n">
-        <v>275.2818614990421</v>
+        <v>275.281861499042</v>
       </c>
       <c r="D38" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E38" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F38" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917434</v>
       </c>
       <c r="T38" t="n">
-        <v>123.2081244353886</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U38" t="n">
-        <v>161.1737578526514</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V38" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W38" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X38" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.2469083840882</v>
+        <v>296.246908384088</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997185</v>
+        <v>89.84094990997176</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666239</v>
+        <v>77.25579082666229</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624644</v>
+        <v>58.62444274624681</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460373</v>
+        <v>56.44293237460363</v>
       </c>
       <c r="F40" t="n">
-        <v>55.4300177509658</v>
+        <v>55.4300177509657</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574815</v>
+        <v>76.98582764574805</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866692</v>
       </c>
       <c r="I40" t="n">
-        <v>34.9620471463379</v>
+        <v>34.9620471463378</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497096</v>
+        <v>41.70377341497086</v>
       </c>
       <c r="S40" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185888</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V40" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W40" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X40" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801292</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E41" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F41" t="n">
         <v>316.885015469746</v>
@@ -3757,10 +3757,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I41" t="n">
-        <v>33.32498986019392</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T41" t="n">
         <v>123.2081244353881</v>
@@ -3799,16 +3799,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W41" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X41" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065038</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C43" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D43" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E43" t="n">
-        <v>56.44293237460374</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F43" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G43" t="n">
-        <v>76.98582764574816</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H43" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I43" t="n">
-        <v>34.96204714633792</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.70377341497097</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S43" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T43" t="n">
-        <v>133.6214948185857</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U43" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V43" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W43" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X43" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>292.7428113915151</v>
+        <v>292.7428113915153</v>
       </c>
       <c r="C44" t="n">
         <v>275.2818614990421</v>
@@ -3997,7 +3997,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I44" t="n">
-        <v>33.32498986019341</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T44" t="n">
         <v>123.2081244353881</v>
@@ -4140,7 +4140,7 @@
         <v>77.25579082666236</v>
       </c>
       <c r="D46" t="n">
-        <v>58.624442746247</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E46" t="n">
         <v>56.4429323746037</v>
@@ -4149,10 +4149,10 @@
         <v>55.43001775096577</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98582764574812</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H46" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I46" t="n">
         <v>34.96204714633787</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S46" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T46" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U46" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V46" t="n">
         <v>162.1466130518625</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.4206700284041</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="C2" t="n">
-        <v>117.4206700284041</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="D2" t="n">
-        <v>117.4206700284041</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="E2" t="n">
-        <v>117.4206700284041</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="F2" t="n">
-        <v>60.94670406630134</v>
+        <v>32.00003797263051</v>
       </c>
       <c r="G2" t="n">
-        <v>4.472738104198541</v>
+        <v>16.54272735128197</v>
       </c>
       <c r="H2" t="n">
-        <v>4.472738104198541</v>
+        <v>16.54272735128197</v>
       </c>
       <c r="I2" t="n">
-        <v>4.472738104198541</v>
+        <v>16.54272735128197</v>
       </c>
       <c r="J2" t="n">
-        <v>4.472738104198541</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="K2" t="n">
-        <v>59.82287214365549</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1730061831124</v>
+        <v>59.82287214365648</v>
       </c>
       <c r="M2" t="n">
-        <v>170.5231402225694</v>
+        <v>115.1730061831144</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6369052099271</v>
+        <v>170.5231402225722</v>
       </c>
       <c r="O2" t="n">
-        <v>223.6369052099271</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="P2" t="n">
-        <v>223.6369052099271</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.6369052099271</v>
+        <v>213.5452898417037</v>
       </c>
       <c r="R2" t="n">
-        <v>223.6369052099271</v>
+        <v>213.5452898417037</v>
       </c>
       <c r="S2" t="n">
-        <v>223.6369052099271</v>
+        <v>157.0713238796</v>
       </c>
       <c r="T2" t="n">
-        <v>223.6369052099271</v>
+        <v>100.5973579174962</v>
       </c>
       <c r="U2" t="n">
-        <v>167.1629392478243</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="V2" t="n">
-        <v>167.1629392478243</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="W2" t="n">
-        <v>167.1629392478243</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="X2" t="n">
-        <v>167.1629392478243</v>
+        <v>44.12339195539249</v>
       </c>
       <c r="Y2" t="n">
-        <v>167.1629392478243</v>
+        <v>44.12339195539249</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="C3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="D3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="E3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="F3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="G3" t="n">
-        <v>118.1748026811898</v>
+        <v>118.1748026811918</v>
       </c>
       <c r="H3" t="n">
-        <v>61.70083671908705</v>
+        <v>61.70083671908806</v>
       </c>
       <c r="I3" t="n">
-        <v>5.226870756984255</v>
+        <v>5.226870756984329</v>
       </c>
       <c r="J3" t="n">
-        <v>4.472738104198541</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="K3" t="n">
-        <v>59.82287214365549</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="L3" t="n">
-        <v>112.9366371310132</v>
+        <v>57.5865030915572</v>
       </c>
       <c r="M3" t="n">
-        <v>112.9366371310132</v>
+        <v>112.9366371310151</v>
       </c>
       <c r="N3" t="n">
-        <v>168.2867711704701</v>
+        <v>168.2867711704729</v>
       </c>
       <c r="O3" t="n">
-        <v>168.2867711704701</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="P3" t="n">
-        <v>223.6369052099271</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.6369052099271</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1629392478243</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1748026811898</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="T3" t="n">
-        <v>118.1748026811898</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="U3" t="n">
-        <v>118.1748026811898</v>
+        <v>223.6369052099308</v>
       </c>
       <c r="V3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="W3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="X3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.1748026811898</v>
+        <v>174.6487686432955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="C4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="D4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="E4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="F4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="G4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="H4" t="n">
-        <v>4.472738104198541</v>
+        <v>117.4206700284061</v>
       </c>
       <c r="I4" t="n">
-        <v>4.472738104198541</v>
+        <v>60.94670406630235</v>
       </c>
       <c r="J4" t="n">
-        <v>4.472738104198541</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="K4" t="n">
-        <v>4.472738104198541</v>
+        <v>4.472738104198616</v>
       </c>
       <c r="L4" t="n">
-        <v>31.78686311191152</v>
+        <v>31.78686311191159</v>
       </c>
       <c r="M4" t="n">
-        <v>70.9749013041337</v>
+        <v>70.97490130413377</v>
       </c>
       <c r="N4" t="n">
-        <v>114.66575195957</v>
+        <v>114.6657519595701</v>
       </c>
       <c r="O4" t="n">
-        <v>139.0050285944693</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="P4" t="n">
-        <v>139.0050285944693</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="Q4" t="n">
-        <v>139.0050285944693</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="R4" t="n">
-        <v>139.0050285944693</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="S4" t="n">
-        <v>139.0050285944693</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="T4" t="n">
-        <v>117.4206700284041</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="U4" t="n">
-        <v>60.94670406630134</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="V4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="W4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="X4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.472738104198541</v>
+        <v>139.0050285944694</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F5" t="n">
-        <v>509.4769954460863</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.1108339952409</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C6" t="n">
-        <v>588.1108339952409</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D6" t="n">
-        <v>439.1764243339896</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E6" t="n">
-        <v>279.9389693285341</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>588.1108339952409</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>588.1108339952409</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>588.1108339952409</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>588.1108339952409</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4770,7 +4770,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="U9" t="n">
-        <v>570.4639408291474</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="V9" t="n">
-        <v>570.4639408291474</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="W9" t="n">
-        <v>570.4639408291474</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>416.1069178844125</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C11" t="n">
         <v>1542.033413984769</v>
@@ -5026,16 +5026,16 @@
         <v>1274.667745955761</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F11" t="n">
-        <v>659.6936497233953</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G11" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H11" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I11" t="n">
         <v>71.10158821569497</v>
@@ -5044,13 +5044,13 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L11" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M11" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N11" t="n">
         <v>2385.446588068709</v>
@@ -5068,7 +5068,7 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S11" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T11" t="n">
         <v>3362.43399598216</v>
@@ -5126,13 +5126,13 @@
         <v>128.0155738864514</v>
       </c>
       <c r="L12" t="n">
-        <v>617.9979342484362</v>
+        <v>617.9979342484361</v>
       </c>
       <c r="M12" t="n">
         <v>1241.763459456298</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.745215431622</v>
+        <v>1897.745215431621</v>
       </c>
       <c r="O12" t="n">
         <v>2431.424687459554</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634047</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132391</v>
+        <v>420.2581017132407</v>
       </c>
       <c r="D13" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786479</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H13" t="n">
         <v>106.41678735341</v>
@@ -5199,52 +5199,52 @@
         <v>71.10158821569497</v>
       </c>
       <c r="J13" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L13" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N13" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O13" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P13" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q13" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R13" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T13" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U13" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V13" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019616</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816872</v>
+        <v>718.9352368816885</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883158999</v>
+        <v>589.0426883159014</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233962</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H14" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I14" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J14" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M14" t="n">
         <v>1780.224142393353</v>
@@ -5296,13 +5296,13 @@
         <v>2911.753343601288</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S14" t="n">
         <v>3486.886646926996</v>
@@ -5311,16 +5311,16 @@
         <v>3362.43399598216</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V14" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y14" t="n">
         <v>2115.795709833817</v>
@@ -5345,7 +5345,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F15" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G15" t="n">
         <v>220.9013999505779</v>
@@ -5354,28 +5354,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I15" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J15" t="n">
-        <v>71.10158821569497</v>
+        <v>183.5040598342602</v>
       </c>
       <c r="K15" t="n">
-        <v>128.0155738864514</v>
+        <v>502.2386301474695</v>
       </c>
       <c r="L15" t="n">
-        <v>617.9979342484362</v>
+        <v>992.2209905094543</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.763459456298</v>
+        <v>1154.938502604816</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.745215431622</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O15" t="n">
-        <v>2431.424687459554</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P15" t="n">
-        <v>2527.468305144393</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q15" t="n">
         <v>2662.220283762224</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132391</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D16" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G16" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H16" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I16" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476423</v>
       </c>
       <c r="L16" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021207</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885103</v>
       </c>
       <c r="N16" t="n">
         <v>1160.182765121765</v>
@@ -5454,19 +5454,19 @@
         <v>1415.521203172264</v>
       </c>
       <c r="P16" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.344941642818</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109221</v>
       </c>
       <c r="R16" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457735</v>
       </c>
       <c r="S16" t="n">
         <v>1551.552796903629</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016167</v>
       </c>
       <c r="U16" t="n">
         <v>1218.326354289323</v>
@@ -5475,13 +5475,13 @@
         <v>1054.541896661179</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019616</v>
+        <v>856.0247572019617</v>
       </c>
       <c r="X16" t="n">
-        <v>718.9352368816872</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883158999</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C17" t="n">
         <v>1542.033413984769</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233953</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921539</v>
       </c>
       <c r="H17" t="n">
         <v>104.7631941350823</v>
@@ -5515,7 +5515,7 @@
         <v>71.10158821569497</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K17" t="n">
         <v>636.9590170723836</v>
@@ -5524,7 +5524,7 @@
         <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N17" t="n">
         <v>2385.446588068709</v>
@@ -5542,22 +5542,22 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926996</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T17" t="n">
         <v>3362.43399598216</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y17" t="n">
         <v>2115.795709833817</v>
@@ -5594,25 +5594,25 @@
         <v>71.10158821569497</v>
       </c>
       <c r="J18" t="n">
-        <v>71.10158821569497</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K18" t="n">
-        <v>300.3379348794932</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L18" t="n">
-        <v>423.1883533910534</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M18" t="n">
-        <v>1046.953878598915</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.935634574239</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O18" t="n">
-        <v>2236.615106602171</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P18" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5673,10 +5673,10 @@
         <v>71.10158821569497</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7485218715119</v>
+        <v>138.748521871511</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476429</v>
       </c>
       <c r="L19" t="n">
         <v>588.1068164021212</v>
@@ -5737,46 +5737,46 @@
         <v>1274.667745955761</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233952</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I20" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397091</v>
+        <v>249.23636263971</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723845</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220687</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393354</v>
       </c>
       <c r="N20" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O20" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P20" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S20" t="n">
         <v>3486.886646926997</v>
@@ -5785,13 +5785,13 @@
         <v>3362.433995982161</v>
       </c>
       <c r="U20" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V20" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X20" t="n">
         <v>2415.035011231886</v>
@@ -5828,19 +5828,19 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I21" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J21" t="n">
-        <v>129.3635056123217</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K21" t="n">
-        <v>186.2774912830781</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L21" t="n">
-        <v>676.2598516450628</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M21" t="n">
-        <v>838.9773637404248</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N21" t="n">
         <v>1494.959119715748</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634035</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132396</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786468</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739966</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G22" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H22" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I22" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L22" t="n">
         <v>588.1068164021219</v>
@@ -5922,40 +5922,40 @@
         <v>873.7644385885114</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O22" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P22" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q22" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R22" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S22" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T22" t="n">
         <v>1416.581590016168</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V22" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019616</v>
       </c>
       <c r="X22" t="n">
-        <v>718.9352368816881</v>
+        <v>718.9352368816872</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D23" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233961</v>
       </c>
       <c r="G23" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921546</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I23" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397093</v>
+        <v>249.23636263971</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723845</v>
       </c>
       <c r="L23" t="n">
         <v>1170.239882220687</v>
       </c>
       <c r="M23" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393354</v>
       </c>
       <c r="N23" t="n">
         <v>2385.44658806871</v>
@@ -6016,25 +6016,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S23" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T23" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U23" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V23" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X23" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y23" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I24" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J24" t="n">
-        <v>71.101588215695</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K24" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L24" t="n">
-        <v>512.6865770404645</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M24" t="n">
-        <v>1136.452102248327</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N24" t="n">
-        <v>1792.43385822365</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O24" t="n">
-        <v>2028.63859174368</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P24" t="n">
         <v>2439.960350382057</v>
@@ -6123,52 +6123,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132396</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D25" t="n">
-        <v>361.0414928786468</v>
+        <v>361.0414928786472</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739966</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G25" t="n">
-        <v>170.2750506853968</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H25" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I25" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L25" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N25" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O25" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P25" t="n">
         <v>1623.344941642819</v>
       </c>
       <c r="Q25" t="n">
-        <v>1711.205292109221</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R25" t="n">
         <v>1669.080268457736</v>
@@ -6180,19 +6180,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U25" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V25" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816874</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C26" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E26" t="n">
-        <v>979.779523935261</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233964</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G26" t="n">
         <v>333.3796118921541</v>
@@ -6232,16 +6232,16 @@
         <v>636.9590170723837</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M26" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N26" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O26" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P26" t="n">
         <v>3323.269600003673</v>
@@ -6268,7 +6268,7 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y26" t="n">
         <v>2115.795709833817</v>
@@ -6305,22 +6305,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J27" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K27" t="n">
-        <v>128.0155738864514</v>
+        <v>394.2540061415685</v>
       </c>
       <c r="L27" t="n">
-        <v>617.9979342484362</v>
+        <v>884.2363665035533</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.763459456298</v>
+        <v>1046.953878598915</v>
       </c>
       <c r="N27" t="n">
-        <v>1897.745215431622</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O27" t="n">
-        <v>2431.424687459554</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P27" t="n">
         <v>2647.936865240548</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634049</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786467</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739966</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F28" t="n">
         <v>248.0385129538292</v>
@@ -6387,13 +6387,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N28" t="n">
         <v>1160.182765121766</v>
@@ -6414,22 +6414,22 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019631</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816888</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159016</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>659.6936497233957</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921539</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350823</v>
+        <v>104.763194135082</v>
       </c>
       <c r="I29" t="n">
         <v>71.10158821569499</v>
@@ -6493,16 +6493,16 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V29" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X29" t="n">
         <v>2415.035011231886</v>
@@ -6545,22 +6545,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K30" t="n">
-        <v>128.0155738864514</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L30" t="n">
-        <v>530.4899794861002</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M30" t="n">
-        <v>1154.255504693962</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.237260669286</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O30" t="n">
-        <v>2343.916732697218</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P30" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q30" t="n">
         <v>2662.220283762224</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634038</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132398</v>
+        <v>420.25810171324</v>
       </c>
       <c r="D31" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786472</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739967</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538296</v>
       </c>
       <c r="G31" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853972</v>
       </c>
       <c r="H31" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534104</v>
       </c>
       <c r="I31" t="n">
         <v>71.10158821569499</v>
@@ -6630,16 +6630,16 @@
         <v>588.106816402122</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O31" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q31" t="n">
         <v>1711.205292109222</v>
@@ -6666,7 +6666,7 @@
         <v>718.935236881688</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1542.03341398477</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955763</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352613</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233962</v>
+        <v>659.6936497233966</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921543</v>
+        <v>333.379611892155</v>
       </c>
       <c r="H32" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I32" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J32" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M32" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N32" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O32" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P32" t="n">
         <v>3323.269600003673</v>
@@ -6727,10 +6727,10 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926999</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U32" t="n">
         <v>3199.632220373423</v>
@@ -6745,7 +6745,7 @@
         <v>2415.035011231887</v>
       </c>
       <c r="Y32" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J33" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>128.0155738864514</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L33" t="n">
-        <v>617.9979342484362</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.763459456298</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N33" t="n">
-        <v>1897.745215431622</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O33" t="n">
-        <v>2431.424687459554</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P33" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q33" t="n">
         <v>2662.220283762224</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634031</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132399</v>
+        <v>420.258101713239</v>
       </c>
       <c r="D34" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786461</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739959</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538284</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853959</v>
       </c>
       <c r="H34" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I34" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L34" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O34" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P34" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q34" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S34" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T34" t="n">
         <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019616</v>
       </c>
       <c r="X34" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816872</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883158999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C35" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D35" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352606</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F35" t="n">
-        <v>659.693649723396</v>
+        <v>659.6936497233952</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921545</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H35" t="n">
         <v>104.7631941350823</v>
@@ -6937,10 +6937,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L35" t="n">
         <v>1170.239882220686</v>
@@ -7025,16 +7025,16 @@
         <v>879.8185188908891</v>
       </c>
       <c r="M36" t="n">
-        <v>1042.536030986251</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.517786961575</v>
+        <v>1685.016849473957</v>
       </c>
       <c r="O36" t="n">
-        <v>2232.197258989507</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.519017627884</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q36" t="n">
         <v>2662.220283762224</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634035</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739964</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538289</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853965</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H37" t="n">
-        <v>106.4167873534096</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I37" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
         <v>322.4370930476437</v>
@@ -7104,28 +7104,28 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885112</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R37" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S37" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T37" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U37" t="n">
         <v>1218.326354289324</v>
@@ -7134,13 +7134,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C38" t="n">
         <v>1542.03341398477</v>
       </c>
       <c r="D38" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233954</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921542</v>
+        <v>333.379611892154</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350822</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569499</v>
@@ -7195,13 +7195,13 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q38" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R38" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S38" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T38" t="n">
         <v>3362.433995982161</v>
@@ -7262,16 +7262,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M39" t="n">
-        <v>1615.986515717317</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.859330658201</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O39" t="n">
-        <v>2236.615106602171</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P39" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q39" t="n">
         <v>2662.220283762224</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634033</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132394</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786471</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538291</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853967</v>
       </c>
       <c r="H40" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I40" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N40" t="n">
         <v>1160.182765121766</v>
@@ -7353,31 +7353,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q40" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109223</v>
       </c>
       <c r="R40" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S40" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.552796903631</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016167</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V40" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661179</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019615</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816872</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C41" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D41" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E41" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F41" t="n">
-        <v>659.6936497233962</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G41" t="n">
-        <v>333.3796118921547</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H41" t="n">
-        <v>104.7631941350828</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I41" t="n">
         <v>71.10158821569499</v>
@@ -7414,13 +7414,13 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L41" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N41" t="n">
         <v>2385.446588068709</v>
@@ -7432,13 +7432,13 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S41" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T41" t="n">
         <v>3362.433995982161</v>
@@ -7490,25 +7490,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J42" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K42" t="n">
-        <v>128.0155738864514</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L42" t="n">
-        <v>617.9979342484362</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.763459456298</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.745215431622</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O42" t="n">
-        <v>2431.424687459554</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P42" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q42" t="n">
         <v>2662.220283762224</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C43" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D43" t="n">
-        <v>361.0414928786472</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E43" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F43" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G43" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H43" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I43" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K43" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L43" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885111</v>
       </c>
       <c r="N43" t="n">
         <v>1160.182765121765</v>
@@ -7599,7 +7599,7 @@
         <v>1551.552796903629</v>
       </c>
       <c r="T43" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U43" t="n">
         <v>1218.326354289324</v>
@@ -7608,13 +7608,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>856.0247572019626</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X43" t="n">
-        <v>718.9352368816882</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C44" t="n">
-        <v>1542.033413984768</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E44" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F44" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G44" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H44" t="n">
         <v>104.7631941350823</v>
@@ -7648,10 +7648,10 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L44" t="n">
         <v>1170.239882220686</v>
@@ -7669,10 +7669,10 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q44" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R44" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S44" t="n">
         <v>3486.886646926997</v>
@@ -7687,13 +7687,13 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X44" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y44" t="n">
-        <v>2115.795709833816</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J45" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K45" t="n">
-        <v>128.0155738864514</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L45" t="n">
-        <v>617.9979342484362</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.763459456298</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.745215431622</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O45" t="n">
-        <v>2431.424687459554</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P45" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C46" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D46" t="n">
         <v>361.041492878647</v>
       </c>
       <c r="E46" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F46" t="n">
         <v>248.0385129538293</v>
       </c>
       <c r="G46" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H46" t="n">
         <v>106.41678735341</v>
@@ -7830,10 +7830,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R46" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S46" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T46" t="n">
         <v>1416.581590016168</v>
@@ -7845,13 +7845,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X46" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y46" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>275.9990773474623</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>291.675641272469</v>
+        <v>291.6756412724699</v>
       </c>
       <c r="M2" t="n">
-        <v>286.2554595297545</v>
+        <v>286.2554595297554</v>
       </c>
       <c r="N2" t="n">
-        <v>283.0633312605885</v>
+        <v>285.3222898990736</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.7484790856853</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.7506652768407</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.2046474438718</v>
+        <v>192.2046474438727</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>198.043260224501</v>
       </c>
       <c r="N3" t="n">
-        <v>187.2509383858151</v>
+        <v>187.250938385816</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>198.5054707469271</v>
       </c>
       <c r="P3" t="n">
-        <v>189.883633716812</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.55318522064593</v>
+        <v>12.55318522064596</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6854142385405</v>
+        <v>121.6854142385406</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>12.55318522064593</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>160.189708823966</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.6854142385405</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.55318522064593</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>174.0629909020624</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>71.40360683340022</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,22 +9716,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="O24" t="n">
-        <v>93.3827854303635</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>155.3898592288402</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>121.68541423854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>12.5531852206459</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>282.4484718061501</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>18.09978292957794</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>121.68541423854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>201.8848144704579</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.462472336024071</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="N39" t="n">
-        <v>298.424252086544</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>121.68541423854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>160.1897088239655</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>121.68541423854</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
     </row>
     <row r="23">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.044497821567347e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>685364.2335258157</v>
+        <v>685364.2335258158</v>
       </c>
     </row>
     <row r="3">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176748</v>
       </c>
       <c r="F2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="G2" t="n">
         <v>800515.7256176749</v>
       </c>
-      <c r="G2" t="n">
-        <v>800515.725617675</v>
-      </c>
       <c r="H2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176752</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="J2" t="n">
         <v>800515.7256176749</v>
       </c>
       <c r="K2" t="n">
+        <v>800515.7256176749</v>
+      </c>
+      <c r="L2" t="n">
+        <v>800515.7256176751</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176751</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.7256176767</v>
       </c>
-      <c r="L2" t="n">
-        <v>800515.725617675</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176751</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176752</v>
-      </c>
       <c r="P2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.7256176765</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18736.46764616659</v>
+        <v>18736.46764616691</v>
       </c>
       <c r="C3" t="n">
-        <v>59802.01954823546</v>
+        <v>59802.01954823516</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717213.3002186427</v>
+        <v>717213.3002186426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86621.13782425885</v>
+        <v>86621.13782425923</v>
       </c>
       <c r="K3" t="n">
-        <v>47640.11974484819</v>
+        <v>47640.11974484796</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>161423.2775258325</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>71992.82421757236</v>
+        <v>71992.82421757242</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>378069.477049077</v>
+        <v>378069.4770490768</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26438,7 +26438,7 @@
         <v>157137.7302795614</v>
       </c>
       <c r="I4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="J4" t="n">
         <v>157137.7302795614</v>
@@ -26447,13 +26447,13 @@
         <v>157137.7302795614</v>
       </c>
       <c r="L4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="M4" t="n">
         <v>157137.7302795613</v>
       </c>
       <c r="N4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="O4" t="n">
         <v>157137.7302795613</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37026.88095919089</v>
+        <v>37026.88095919094</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="F5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="G5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="H5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="I5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
         <v>73862.46925788873</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>366682.8999632417</v>
+        <v>366682.8999632412</v>
       </c>
       <c r="C6" t="n">
-        <v>346366.7486004086</v>
+        <v>346366.7486004088</v>
       </c>
       <c r="D6" t="n">
-        <v>406168.7681486442</v>
+        <v>406168.768148644</v>
       </c>
       <c r="E6" t="n">
-        <v>-147697.7741384177</v>
+        <v>-147697.774138418</v>
       </c>
       <c r="F6" t="n">
-        <v>569515.5260802248</v>
+        <v>569515.5260802264</v>
       </c>
       <c r="G6" t="n">
         <v>569515.5260802248</v>
       </c>
       <c r="H6" t="n">
+        <v>569515.5260802251</v>
+      </c>
+      <c r="I6" t="n">
+        <v>569515.5260802262</v>
+      </c>
+      <c r="J6" t="n">
+        <v>482894.3882559655</v>
+      </c>
+      <c r="K6" t="n">
+        <v>521875.4063353768</v>
+      </c>
+      <c r="L6" t="n">
         <v>569515.5260802252</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>408092.2485543935</v>
+      </c>
+      <c r="N6" t="n">
         <v>569515.5260802248</v>
       </c>
-      <c r="J6" t="n">
-        <v>482894.3882559658</v>
-      </c>
-      <c r="K6" t="n">
-        <v>521875.4063353784</v>
-      </c>
-      <c r="L6" t="n">
-        <v>569515.5260802249</v>
-      </c>
-      <c r="M6" t="n">
-        <v>408092.2485543925</v>
-      </c>
-      <c r="N6" t="n">
-        <v>569515.5260802252</v>
-      </c>
       <c r="O6" t="n">
-        <v>497522.7018626529</v>
+        <v>497522.7018626542</v>
       </c>
       <c r="P6" t="n">
-        <v>569515.5260802248</v>
+        <v>569515.5260802264</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G2" t="n">
         <v>89.99103027196551</v>
       </c>
       <c r="H2" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I2" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.99103027196543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>89.99103027196546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>89.99103027196554</v>
+      </c>
+      <c r="O2" t="n">
         <v>89.99103027196547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>89.99103027196546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>89.99103027196544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>89.99103027196544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>89.99103027196543</v>
       </c>
       <c r="P2" t="n">
         <v>89.99103027196547</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223247</v>
       </c>
       <c r="F3" t="n">
         <v>562.3764353223248</v>
@@ -26755,19 +26755,19 @@
         <v>562.3764353223248</v>
       </c>
       <c r="H3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="I3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="J3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="K3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="L3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="M3" t="n">
         <v>562.3764353223249</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26801,16 +26801,16 @@
         <v>888.7698526961872</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961871</v>
       </c>
       <c r="G4" t="n">
         <v>888.7698526961872</v>
       </c>
       <c r="H4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="J4" t="n">
         <v>888.7698526961873</v>
@@ -26825,13 +26825,13 @@
         <v>888.7698526961874</v>
       </c>
       <c r="N4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="O4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719656</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="C4" t="n">
-        <v>185.1050625751773</v>
+        <v>185.1050625751764</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.90922630248154</v>
+        <v>55.90922630248258</v>
       </c>
       <c r="K4" t="n">
-        <v>185.1050625751773</v>
+        <v>185.1050625751762</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.9910302719656</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="K4" t="n">
-        <v>185.1050625751773</v>
+        <v>185.1050625751764</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.4889951362546</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>350.9668194392297</v>
+        <v>394.8739252987771</v>
       </c>
       <c r="G2" t="n">
-        <v>359.3935112126533</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>153.1108432837626</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>167.1866232616487</v>
       </c>
       <c r="U2" t="n">
-        <v>195.4364266053547</v>
+        <v>195.4364266053538</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>81.43429086072794</v>
       </c>
       <c r="H3" t="n">
-        <v>56.3262179340147</v>
+        <v>56.32621793401377</v>
       </c>
       <c r="I3" t="n">
-        <v>33.48740654893331</v>
+        <v>33.48740654893238</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.24860785016137</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>123.1849159028698</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>184.3023319484564</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27554,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>140.8586575270369</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>99.54124862477559</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>37.44995381419008</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27590,13 +27590,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>206.577074447877</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>230.4098030540091</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>196.2284170213462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G5" t="n">
-        <v>393.4483115052977</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27672,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>54.70916482169682</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27748,13 +27748,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>132.4547341056649</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>135.2176944786454</v>
       </c>
       <c r="U9" t="n">
-        <v>208.1319993449604</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.33425578299913</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954764</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="C16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="D16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="E16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="F16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="G16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="H16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="I16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="K16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196408</v>
       </c>
       <c r="L16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="M16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="N16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="O16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="P16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="R16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="S16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="T16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="U16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="V16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="W16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="X16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196553</v>
       </c>
     </row>
     <row r="17">
@@ -28745,13 +28745,13 @@
         <v>89.99103027196551</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196463</v>
       </c>
       <c r="K19" t="n">
         <v>89.99103027196551</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196469</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M19" t="n">
         <v>89.99103027196551</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28848,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196425</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29796,28 +29796,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196543</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196544</v>
+        <v>89.99103027196554</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="44">
@@ -31755,10 +31755,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I11" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824694</v>
       </c>
       <c r="J11" t="n">
         <v>191.8834049344248</v>
@@ -31767,34 +31767,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L11" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805674</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453843</v>
       </c>
       <c r="P11" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R11" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226651</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K12" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L12" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M12" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N12" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333033</v>
       </c>
       <c r="P12" t="n">
         <v>230.9881626515413</v>
@@ -31864,16 +31864,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587577</v>
       </c>
       <c r="S12" t="n">
-        <v>22.46853022254759</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617806</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807114</v>
       </c>
       <c r="I13" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068391</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
@@ -31928,10 +31928,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M13" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N13" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O13" t="n">
         <v>143.3414560064182</v>
@@ -31940,7 +31940,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367103</v>
       </c>
       <c r="R13" t="n">
         <v>45.59858769023307</v>
@@ -31949,7 +31949,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729385</v>
       </c>
       <c r="U13" t="n">
         <v>0.05531571494973692</v>
@@ -32466,10 +32466,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H20" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I20" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J20" t="n">
         <v>191.8834049344248</v>
@@ -32478,34 +32478,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L20" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M20" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N20" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O20" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P20" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R20" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S20" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T20" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I21" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K21" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L21" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M21" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N21" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P21" t="n">
         <v>230.9881626515413</v>
@@ -32575,16 +32575,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R21" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S21" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T21" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H22" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I22" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J22" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K22" t="n">
         <v>117.8224728429395</v>
@@ -32639,10 +32639,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M22" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N22" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O22" t="n">
         <v>143.3414560064182</v>
@@ -32651,7 +32651,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R22" t="n">
         <v>45.59858769023307</v>
@@ -32660,7 +32660,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T22" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U22" t="n">
         <v>0.05531571494973692</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H23" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I23" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J23" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K23" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L23" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M23" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N23" t="n">
         <v>403.4019428970884</v>
@@ -32727,19 +32727,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P23" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q23" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R23" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S23" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T23" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U23" t="n">
         <v>0.18086478321924</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H24" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I24" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J24" t="n">
         <v>114.2844414460208</v>
@@ -32800,28 +32800,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N24" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O24" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P24" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q24" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R24" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S24" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T24" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H25" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I25" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K25" t="n">
         <v>117.8224728429395</v>
@@ -32888,19 +32888,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R25" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S25" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T25" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H26" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I26" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J26" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K26" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L26" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M26" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N26" t="n">
         <v>403.4019428970884</v>
@@ -32964,19 +32964,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P26" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q26" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R26" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S26" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T26" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U26" t="n">
         <v>0.18086478321924</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H27" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I27" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J27" t="n">
         <v>114.2844414460208</v>
@@ -33037,28 +33037,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N27" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O27" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P27" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q27" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R27" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S27" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T27" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,13 +33098,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H28" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I28" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J28" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K28" t="n">
         <v>117.8224728429395</v>
@@ -33125,19 +33125,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R28" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S28" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T28" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H29" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I29" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J29" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K29" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L29" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M29" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N29" t="n">
         <v>403.4019428970884</v>
@@ -33201,19 +33201,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P29" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q29" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R29" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S29" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T29" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U29" t="n">
         <v>0.18086478321924</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H30" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I30" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J30" t="n">
         <v>114.2844414460208</v>
@@ -33274,28 +33274,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N30" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O30" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P30" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q30" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R30" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S30" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T30" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H31" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I31" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J31" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K31" t="n">
         <v>117.8224728429395</v>
@@ -33362,19 +33362,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R31" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S31" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T31" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H32" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I32" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J32" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K32" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L32" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M32" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N32" t="n">
         <v>403.4019428970884</v>
@@ -33438,19 +33438,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P32" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q32" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R32" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S32" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T32" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U32" t="n">
         <v>0.18086478321924</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H33" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I33" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J33" t="n">
         <v>114.2844414460208</v>
@@ -33511,28 +33511,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N33" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O33" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P33" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q33" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R33" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S33" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T33" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,13 +33572,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H34" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I34" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J34" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K34" t="n">
         <v>117.8224728429395</v>
@@ -33599,19 +33599,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R34" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S34" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T34" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="M2" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="N2" t="n">
-        <v>53.65026766399763</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.65026766399855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.65026766399765</v>
+        <v>53.65026766399856</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="N3" t="n">
-        <v>55.90922630248176</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55.90922630248269</v>
       </c>
       <c r="P3" t="n">
-        <v>55.90922630248176</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538411</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461272</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O11" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864429</v>
       </c>
       <c r="P11" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>57.4888744149055</v>
+        <v>57.48887441490544</v>
       </c>
       <c r="L12" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M12" t="n">
-        <v>630.0661870786486</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N12" t="n">
         <v>662.6078343185084</v>
@@ -35509,7 +35509,7 @@
         <v>218.6991694757516</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42769547644022</v>
+        <v>14.42769547644019</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K13" t="n">
         <v>185.5440112890221</v>
@@ -35579,16 +35579,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N13" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O13" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K15" t="n">
-        <v>57.4888744149055</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L15" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786486</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989209</v>
       </c>
       <c r="O15" t="n">
         <v>539.0701737655884</v>
       </c>
       <c r="P15" t="n">
-        <v>97.01375523721109</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1131097149807</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K16" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890207</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M16" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N16" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K18" t="n">
-        <v>231.5518653169679</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L18" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M18" t="n">
-        <v>630.0661870786486</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989206</v>
       </c>
       <c r="O18" t="n">
         <v>539.0701737655884</v>
@@ -35983,7 +35983,7 @@
         <v>415.4765238771482</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.42769547644022</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597579</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136136</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M19" t="n">
         <v>288.5430527135248</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798132</v>
       </c>
       <c r="K20" t="n">
         <v>391.6390448814894</v>
       </c>
       <c r="L20" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M20" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N20" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O20" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P20" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>58.85042161275426</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K21" t="n">
-        <v>57.48887441490544</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M21" t="n">
-        <v>164.3611233286486</v>
+        <v>324.5508321526145</v>
       </c>
       <c r="N21" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O21" t="n">
         <v>539.0701737655884</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597665</v>
+        <v>68.3302360159766</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36290,16 +36290,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N22" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O22" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P22" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394216</v>
+        <v>88.7478287539421</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798132</v>
       </c>
       <c r="K23" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L23" t="n">
         <v>538.6675405538413</v>
@@ -36369,13 +36369,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N23" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O23" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P23" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q23" t="n">
         <v>234.1513240212892</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K24" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L24" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N24" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989206</v>
       </c>
       <c r="O24" t="n">
-        <v>238.5906399192225</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771483</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q24" t="n">
         <v>224.5049832122893</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597668</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K25" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L25" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M25" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N25" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O25" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P25" t="n">
-        <v>209.9229681520742</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K26" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L26" t="n">
         <v>538.6675405538413</v>
@@ -36606,13 +36606,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N26" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O26" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P26" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q26" t="n">
         <v>234.1513240212892</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K27" t="n">
-        <v>57.48887441490552</v>
+        <v>212.8787336437457</v>
       </c>
       <c r="L27" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N27" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O27" t="n">
-        <v>539.0701737655885</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P27" t="n">
-        <v>218.6991694757511</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.42769547644025</v>
+        <v>14.42769547644022</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597668</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K28" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L28" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M28" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K29" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L29" t="n">
         <v>538.6675405538413</v>
@@ -36843,13 +36843,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N29" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O29" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P29" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q29" t="n">
         <v>234.1513240212892</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L30" t="n">
-        <v>406.5398036360089</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6078343185084</v>
+        <v>201.3652429045328</v>
       </c>
       <c r="O30" t="n">
-        <v>539.0701737655885</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P30" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644022</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K31" t="n">
         <v>185.5440112890221</v>
@@ -37010,7 +37010,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K32" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L32" t="n">
         <v>538.6675405538413</v>
@@ -37080,13 +37080,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N32" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O32" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P32" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q32" t="n">
         <v>234.1513240212892</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L33" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M33" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N33" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989206</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0701737655885</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P33" t="n">
-        <v>218.6991694757511</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
@@ -37238,16 +37238,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N34" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O34" t="n">
-        <v>257.9176141924235</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
         <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K35" t="n">
         <v>391.6390448814895</v>
@@ -37317,7 +37317,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124818</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O35" t="n">
         <v>531.622985386443</v>
@@ -37393,19 +37393,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N36" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0701737655885</v>
+        <v>347.0926689593168</v>
       </c>
       <c r="P36" t="n">
         <v>415.4765238771483</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.89016781246432</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37484,7 +37484,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M39" t="n">
-        <v>630.0661870786487</v>
+        <v>324.5508321526142</v>
       </c>
       <c r="N39" t="n">
-        <v>481.6897120614989</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O39" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P39" t="n">
         <v>415.4765238771483</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597671</v>
       </c>
       <c r="K40" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L40" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M40" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N40" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O40" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924235</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520756</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394222</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K41" t="n">
         <v>391.6390448814895</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L42" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M42" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N42" t="n">
-        <v>662.6078343185084</v>
+        <v>343.4551687989204</v>
       </c>
       <c r="O42" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P42" t="n">
-        <v>218.6991694757511</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K43" t="n">
         <v>185.5440112890221</v>
@@ -37949,16 +37949,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O43" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P43" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.1513240212892</v>
+        <v>234.151324021289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K45" t="n">
-        <v>57.48887441490552</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M45" t="n">
-        <v>630.0661870786487</v>
+        <v>324.5508321526142</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749549</v>
       </c>
       <c r="O45" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P45" t="n">
-        <v>218.6991694757511</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.42769547644025</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
